--- a/biology/Zoologie/Boiga_ochracea/Boiga_ochracea.xlsx
+++ b/biology/Zoologie/Boiga_ochracea/Boiga_ochracea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boiga ochracea  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boiga ochracea  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Bangladesh, au Bhoutan, en Birmanie, en Inde (dans les États d'Arunachal Pradesh, d'Assam, du Bengale-Occidental, de Meghalaya et de Sikkim, et sur les îles Andaman) et au Népal[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Bangladesh, au Bhoutan, en Birmanie, en Inde (dans les États d'Arunachal Pradesh, d'Assam, du Bengale-Occidental, de Meghalaya et de Sikkim, et sur les îles Andaman) et au Népal.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Günther indique que le plus grand des deux spécimens en sa possession mesure environ 120 cm. Leur coloration était uniformément brun olivâtre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Günther indique que le plus grand des deux spécimens en sa possession mesure environ 120 cm. Leur coloration était uniformément brun olivâtre.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Boiga ochracea ochracea (Günther, 1868)
 Boiga ochracea stoliczkae (Wall, 1909) - Nord de la Birmanie, centre du Népal, État de Sikkim
 Boiga ochracea walli Smith, 1943  - Bangladesh, Sud de la Birmanie, îles Andaman</t>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin ochra, « ocre », lui a été donné en référence à sa couleur. La sous-espèce Boiga ochracea stoliczkae est nommée en l'honneur de Ferdinand Stoliczka[4]. La sous-espèce Boiga ochracea walli est nommée en l'honneur de Frank Wall[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin ochra, « ocre », lui a été donné en référence à sa couleur. La sous-espèce Boiga ochracea stoliczkae est nommée en l'honneur de Ferdinand Stoliczka. La sous-espèce Boiga ochracea walli est nommée en l'honneur de Frank Wall.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Günther, 1868 : Sixth account of new species of snakes in the collection of the British Museum. Annals and Magazine of Natural History, sér. 4, vol. 1, p. 413-429 (texte intégral).
 Smith, 1943 : The Fauna of British India, Ceylon and Burma, Including the Whole of the Indo-Chinese Sub-Region. Reptilia and Amphibia. 3 (Serpentes). p. 1-583.
